--- a/chemical-engineering/dimensional/次元解析.xlsx
+++ b/chemical-engineering/dimensional/次元解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nami/git/experimental-data/chemical-engineering/dimensional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4F9DD-80D2-F64D-922A-C4F9485CBEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67754B0C-2961-7A46-A89A-45E38F818C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="水-空気" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>水→空気</t>
   </si>
@@ -70,19 +70,10 @@
     <t>重力加速度g m/s^2</t>
   </si>
   <si>
-    <t>水：1.00</t>
-  </si>
-  <si>
     <t>分散相の密度ρ g/cm^3</t>
   </si>
   <si>
-    <t>四塩化炭素：1.594</t>
-  </si>
-  <si>
     <t>傾きd</t>
-  </si>
-  <si>
-    <t>空気：0.001205</t>
   </si>
   <si>
     <t>log(σ/D^2 ρg)^d</t>
@@ -106,7 +97,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +113,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +138,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC65911"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +216,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,13 +400,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.8170693164140133</c:v>
+                  <c:v>-1.5740312677277188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.066765871285192</c:v>
+                  <c:v>-0.87967922792804754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.57988477927637339</c:v>
+                  <c:v>-0.66882586261315446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506E29BE-596D-D348-AD0D-5C6B3691C1CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1522,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1541,10 +1557,10 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -1556,10 +1572,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1599,8 +1615,11 @@
         <f>LOG(A2^3/C2)</f>
         <v>-8.2657020333222384</v>
       </c>
-      <c r="L2" t="s">
-        <v>11</v>
+      <c r="K2">
+        <v>1.1142556400000001</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
       <c r="M2" s="4">
         <v>0.99870000000000003</v>
@@ -1610,6 +1629,14 @@
       </c>
       <c r="O2">
         <v>9.8000000000000007</v>
+      </c>
+      <c r="P2">
+        <f>LOG10(N2/(A2^2*1*O2)^K2)</f>
+        <v>8.3252008891647726</v>
+      </c>
+      <c r="Q2">
+        <f>LOG10(M2/L2)</f>
+        <v>-5.6495012367016714E-4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1649,8 +1676,11 @@
         <f t="shared" ref="J3:J4" si="1">LOG(A3^3/C3)</f>
         <v>-7.6045849663584661</v>
       </c>
-      <c r="L3" t="s">
-        <v>13</v>
+      <c r="K3">
+        <v>1.1142556400000001</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="M3" s="4">
         <v>0.99870000000000003</v>
@@ -1660,6 +1690,14 @@
       </c>
       <c r="O3">
         <v>9.8000000000000007</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">LOG10(N3/(A3^2*1*O3)^K3)</f>
+        <v>7.7835878561981771</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q4" si="3">LOG10(M3/L3)</f>
+        <v>-5.6495012367016714E-4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1699,9 +1737,11 @@
         <f t="shared" si="1"/>
         <v>-7.2966651902615309</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
+      <c r="K4">
+        <v>1.1142556400000001</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="M4" s="6">
         <v>0.99870000000000003</v>
@@ -1712,8 +1752,14 @@
       <c r="O4" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>7.4383870910758398</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>-5.6495012367016714E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="E5" s="4"/>
@@ -1740,15 +1786,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B9F278-A1AA-A24A-8A21-18E88941D277}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1757,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1775,10 +1821,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1790,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="20">
       <c r="A2" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1807,19 +1853,19 @@
         <f>B2/$F2</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="9">
-        <v>2.1E-7</v>
+      <c r="D2" s="13">
+        <v>1.1999999999999999E-7</v>
       </c>
       <c r="E2" s="4">
         <f>D2/$F2</f>
-        <v>4.2000000000000004E-9</v>
+        <v>2.4E-9</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE(C2,E2)</f>
-        <v>2.0000020999999999E-3</v>
+        <v>2.0000012E-3</v>
       </c>
       <c r="H2" s="4">
         <f>LOG(0.0004)</f>
@@ -1827,10 +1873,13 @@
       </c>
       <c r="I2">
         <f>LOG(A2^3/E2)</f>
-        <v>-1.8170693164140133</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
+        <v>-1.5740312677277188</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1.4807352300000001</v>
+      </c>
+      <c r="K2">
+        <v>1.5940000000000001</v>
       </c>
       <c r="L2" s="4">
         <v>1.5928</v>
@@ -1841,8 +1890,16 @@
       <c r="N2">
         <v>9.8000000000000007</v>
       </c>
+      <c r="O2">
+        <f>LOG10(M2/(A2^2*1.594*N2)^J2)</f>
+        <v>9.7250762846299761</v>
+      </c>
+      <c r="P2">
+        <f>LOG10(L2/K2)</f>
+        <v>-3.2707004074045186E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="20">
       <c r="A3" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -1853,19 +1910,19 @@
         <f>B3/$F3</f>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D3" s="7">
-        <v>1.9999999999999999E-7</v>
+      <c r="D3" s="13">
+        <v>1.3E-7</v>
       </c>
       <c r="E3" s="4">
         <f>D3/$F3</f>
-        <v>3.9999999999999994E-9</v>
+        <v>2.6000000000000001E-9</v>
       </c>
       <c r="F3">
         <v>50</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE(C3,E3)</f>
-        <v>1.6000020000000001E-3</v>
+        <v>1.6000013000000001E-3</v>
       </c>
       <c r="H3" s="4">
         <f>LOG(0.0007)</f>
@@ -1873,10 +1930,13 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="0">LOG(A3^3/E3)</f>
-        <v>-1.066765871285192</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
+        <v>-0.87967922792804754</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1.4807352300000001</v>
+      </c>
+      <c r="K3">
+        <v>1.5940000000000001</v>
       </c>
       <c r="L3" s="4">
         <v>1.5928</v>
@@ -1887,8 +1947,16 @@
       <c r="N3">
         <v>9.8000000000000007</v>
       </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">LOG10(M3/(A3^2*1.594*N3)^J3)</f>
+        <v>9.0053262827894738</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">LOG10(L3/K3)</f>
+        <v>-3.2707004074045186E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="20">
       <c r="A4" s="8">
         <v>1.0499999999999999E-3</v>
       </c>
@@ -1899,19 +1967,19 @@
         <f>B4/$F4</f>
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="D4" s="10">
-        <v>2.2000000000000001E-7</v>
+      <c r="D4" s="13">
+        <v>2.7000000000000001E-7</v>
       </c>
       <c r="E4" s="6">
         <f>D4/$F4</f>
-        <v>4.4000000000000005E-9</v>
+        <v>5.4000000000000004E-9</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
       </c>
       <c r="G4" s="5">
         <f>AVERAGE(C4,E4)</f>
-        <v>1.7000022000000002E-3</v>
+        <v>1.7000027000000002E-3</v>
       </c>
       <c r="H4" s="6">
         <f>LOG(0.00105)</f>
@@ -1919,11 +1987,13 @@
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>-0.57988477927637339</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>-0.66882586261315446</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1.4807352300000001</v>
+      </c>
+      <c r="K4">
+        <v>1.5940000000000001</v>
       </c>
       <c r="L4" s="6">
         <v>1.5928</v>
@@ -1934,8 +2004,14 @@
       <c r="N4" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>8.483837220831866</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>-3.2707004074045186E-4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1948,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9A7EB-04CF-0F47-B004-C6DE9FBE9A28}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1968,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1986,10 +2062,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -2001,10 +2077,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2040,14 +2116,28 @@
         <f>LOG(A2^3/C2)</f>
         <v>-8.1938200260161125</v>
       </c>
-      <c r="K2" t="s">
-        <v>11</v>
+      <c r="J2" s="12">
+        <v>1.1170028999999999</v>
+      </c>
+      <c r="K2">
+        <v>1.5940000000000001</v>
       </c>
       <c r="L2" s="4">
         <v>0.59399999999999997</v>
       </c>
+      <c r="M2">
+        <v>26.9</v>
+      </c>
       <c r="N2">
         <v>9.8000000000000007</v>
+      </c>
+      <c r="O2">
+        <f>LOG10((M2/A2^2*1.594*N2)^J2)</f>
+        <v>10.521437568946064</v>
+      </c>
+      <c r="P2">
+        <f>LOG10(L2/K2)</f>
+        <v>-0.42870187207890004</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2083,14 +2173,28 @@
         <f t="shared" ref="I3:I4" si="0">LOG(A3^3/C3)</f>
         <v>-7.6108339156354674</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
+      <c r="J3" s="12">
+        <v>1.1170028999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.5940000000000001</v>
       </c>
       <c r="L3" s="4">
         <v>0.59399999999999997</v>
       </c>
+      <c r="M3">
+        <v>26.9</v>
+      </c>
       <c r="N3">
         <v>9.8000000000000007</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">LOG10((M3/A3^2*1.594*N3)^J3)</f>
+        <v>9.9784891585601994</v>
+      </c>
+      <c r="P3">
+        <f>LOG10(L3/K3)</f>
+        <v>-0.42870187207890004</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2126,19 +2230,29 @@
         <f t="shared" si="0"/>
         <v>-7.3010299956639813</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.504</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="J4" s="12">
+        <v>1.1170028999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="M4" s="2">
+        <v>26.9</v>
+      </c>
       <c r="N4" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>9.6324372815206818</v>
+      </c>
+      <c r="P4">
+        <f>LOG10(L4/K4)</f>
+        <v>-0.42870187207890004</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
